--- a/策划案/数值/物体属性id策划.xls.xlsx
+++ b/策划案/数值/物体属性id策划.xls.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepSea\策划需求表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepSea\策划案\数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2FBB95-0461-479D-92E6-0CBD496B165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品属性id" sheetId="1" r:id="rId1"/>
@@ -18,22 +19,11 @@
     <sheet name="背包类策划" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="200">
   <si>
     <t>背包和加成物品属性id大全</t>
   </si>
@@ -724,10 +714,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>背包：只作为承载物品和道具作用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>有四种词条，伤害5%  攻击速度5%  血量10%  护甲10%（绿）并且只能在升级塔进行升级，或是刷新词条</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -745,13 +731,25 @@
   </si>
   <si>
     <t>道具：道具合成和升级只能在升级塔进行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包：只作为承载物品和道具作用，初始背包栏暂定只有20格（绿）最高50格（红）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细任务栏（日志栏）：简易日志栏展开版本，显示更详细的需求，例如：在**收集**个配件用于****</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1160,7 +1158,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1204,7 +1208,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1493,16 +1503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1541,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1558,7 +1568,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
@@ -1591,7 +1601,7 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
     </row>
-    <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -1614,13 +1624,13 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1721,7 +1731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1821,7 +1831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1861,7 +1871,7 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1961,7 +1971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2001,7 +2011,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2089,7 +2099,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2129,7 +2139,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -2195,7 +2205,7 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2235,7 +2245,7 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -2288,7 +2298,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2327,7 +2337,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -2381,7 +2391,7 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2420,7 +2430,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>72</v>
       </c>
@@ -2464,7 +2474,7 @@
       <c r="AM23" s="34"/>
       <c r="AN23" s="34"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -2506,7 +2516,7 @@
       <c r="AM24" s="34"/>
       <c r="AN24" s="34"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="35">
         <v>0.05</v>
       </c>
@@ -2558,7 +2568,7 @@
       <c r="AM25" s="42"/>
       <c r="AN25" s="42"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2600,7 +2610,7 @@
       <c r="AM26" s="42"/>
       <c r="AN26" s="42"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2642,7 +2652,7 @@
       <c r="AM27" s="42"/>
       <c r="AN27" s="42"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2684,7 +2694,7 @@
       <c r="AM28" s="42"/>
       <c r="AN28" s="42"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2726,7 +2736,7 @@
       <c r="AM29" s="42"/>
       <c r="AN29" s="42"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
         <v>73</v>
       </c>
@@ -2769,7 +2779,7 @@
       <c r="AM30" s="29"/>
       <c r="AN30" s="29"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -2810,7 +2820,7 @@
       <c r="AM31" s="29"/>
       <c r="AN31" s="29"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -2851,7 +2861,7 @@
       <c r="AM32" s="29"/>
       <c r="AN32" s="29"/>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -2892,7 +2902,7 @@
       <c r="AM33" s="29"/>
       <c r="AN33" s="29"/>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -2953,21 +2963,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
@@ -2990,7 +3000,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>112</v>
       </c>
@@ -3000,14 +3010,14 @@
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
@@ -3031,7 +3041,7 @@
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -3058,7 +3068,7 @@
       <c r="X4" s="23"/>
       <c r="Y4" s="23"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>121</v>
       </c>
@@ -3099,7 +3109,7 @@
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -3126,7 +3136,7 @@
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>149</v>
       </c>
@@ -3169,7 +3179,7 @@
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3196,7 +3206,7 @@
       <c r="X8" s="23"/>
       <c r="Y8" s="23"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>153</v>
       </c>
@@ -3239,7 +3249,7 @@
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -3266,7 +3276,7 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
     </row>
-    <row r="11" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>177</v>
       </c>
@@ -3305,7 +3315,7 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -3332,7 +3342,7 @@
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>182</v>
       </c>
@@ -3375,7 +3385,7 @@
       <c r="X13" s="23"/>
       <c r="Y13" s="23"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>122</v>
       </c>
@@ -3411,7 +3421,7 @@
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3435,7 +3445,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>181</v>
       </c>
@@ -3471,7 +3481,7 @@
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -3495,7 +3505,7 @@
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>174</v>
       </c>
@@ -3533,7 +3543,7 @@
       </c>
       <c r="V21" s="20"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -3557,7 +3567,7 @@
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>173</v>
       </c>
@@ -3595,7 +3605,7 @@
       </c>
       <c r="V23" s="20"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>133</v>
       </c>
@@ -3631,7 +3641,7 @@
       <c r="U26" s="26"/>
       <c r="V26" s="26"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -3655,7 +3665,7 @@
       <c r="U27" s="26"/>
       <c r="V27" s="26"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>135</v>
       </c>
@@ -3691,7 +3701,7 @@
       <c r="U28" s="26"/>
       <c r="V28" s="26"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -3715,7 +3725,7 @@
       <c r="U29" s="26"/>
       <c r="V29" s="26"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>139</v>
       </c>
@@ -3751,7 +3761,7 @@
       <c r="U30" s="26"/>
       <c r="V30" s="26"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -3775,7 +3785,7 @@
       <c r="U31" s="26"/>
       <c r="V31" s="26"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>141</v>
       </c>
@@ -3811,7 +3821,7 @@
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>144</v>
       </c>
@@ -3849,7 +3859,7 @@
       </c>
       <c r="V34" s="28"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -3873,7 +3883,7 @@
       <c r="U35" s="28"/>
       <c r="V35" s="28"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>163</v>
       </c>
@@ -3918,21 +3928,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>106</v>
       </c>
@@ -3946,7 +3956,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>102</v>
       </c>
@@ -3960,7 +3970,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>101</v>
       </c>
@@ -3977,12 +3987,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K6" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>99</v>
       </c>
@@ -3996,10 +4006,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>100</v>
       </c>
@@ -4013,10 +4023,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>78</v>
       </c>
@@ -4030,10 +4040,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>77</v>
       </c>
@@ -4047,7 +4057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>97</v>
       </c>
@@ -4061,7 +4071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>79</v>
       </c>
@@ -4069,7 +4079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>76</v>
       </c>
@@ -4077,7 +4087,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>81</v>
       </c>
@@ -4092,16 +4102,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B24:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A24:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>191</v>
       </c>
@@ -4119,24 +4129,32 @@
       </c>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="J25" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J27" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J28" s="15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J27" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J28" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J30" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J32" s="15" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/数值/物体属性id策划.xls.xlsx
+++ b/策划案/数值/物体属性id策划.xls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="物品属性id" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,13 +667,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -691,14 +684,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -877,7 +862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,12 +1033,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1067,12 +1046,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,12 +1093,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1144,12 +1111,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1163,18 +1124,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,261 +1260,258 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2017,14 +1963,14 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="14"/>
@@ -2044,14 +1990,14 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:37">
       <c r="A3" s="15" t="s">
@@ -2060,524 +2006,524 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="J3" s="23" t="s">
+      <c r="E3" s="1"/>
+      <c r="J3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="R3" s="23" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="R3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="Z3" s="23" t="s">
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="Z3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AH3" s="23" t="s">
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AH3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:37">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
+      <c r="E4" s="1"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16" t="s">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16" t="s">
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="V6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="W6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16" t="s">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16" t="s">
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC6" s="16" t="s">
+      <c r="AC6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="16" t="s">
+      <c r="AD6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AE6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AF6" s="16" t="s">
+      <c r="AF6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16" t="s">
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16" t="s">
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AK6" s="16" t="s">
+      <c r="AK6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AL6" s="16" t="s">
+      <c r="AL6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AM6" s="16" t="s">
+      <c r="AM6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="29" t="s">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="16" t="s">
+      <c r="S7" s="28"/>
+      <c r="T7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="U7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="1">
         <v>1</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16" t="s">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z7" s="33" t="s">
+      <c r="Z7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16" t="s">
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" s="16" t="s">
+      <c r="AC7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AD7" s="1">
         <v>999</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AE7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AF7" s="1">
         <v>20</v>
       </c>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="37" t="s">
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16" t="s">
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AK7" s="16" t="s">
+      <c r="AK7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AL7" s="16">
+      <c r="AL7" s="1">
         <v>99</v>
       </c>
-      <c r="AM7" s="16" t="s">
+      <c r="AM7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:39">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:39">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="30" t="s">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="16" t="s">
+      <c r="S9" s="29"/>
+      <c r="T9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="16" t="s">
+      <c r="U9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="1">
         <v>1</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="W9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16" t="s">
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z9" s="34" t="s">
+      <c r="Z9" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16" t="s">
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC9" s="16" t="s">
+      <c r="AC9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AD9" s="16">
+      <c r="AD9" s="1">
         <v>999</v>
       </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AE9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF9" s="16">
+      <c r="AF9" s="1">
         <v>10</v>
       </c>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="38" t="s">
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16" t="s">
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AK9" s="16" t="s">
+      <c r="AK9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AL9" s="16">
+      <c r="AL9" s="1">
         <v>99</v>
       </c>
-      <c r="AM9" s="16" t="s">
+      <c r="AM9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="16" t="s">
+      <c r="K11" s="24"/>
+      <c r="L11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="31" t="s">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="31"/>
-      <c r="T11" s="16" t="s">
+      <c r="S11" s="30"/>
+      <c r="T11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="1">
         <v>1</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16" t="s">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="39" t="s">
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AI11" s="16"/>
+      <c r="AI11" s="1"/>
       <c r="AJ11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AL11" s="16">
+      <c r="AL11" s="1">
         <v>99</v>
       </c>
       <c r="AM11" s="1" t="s">
@@ -2585,848 +2531,848 @@
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>1</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
     </row>
     <row r="18" spans="1:38">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>0.05</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="28">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="27">
         <v>0.2</v>
       </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="32">
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="31">
         <v>0.05</v>
       </c>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="35">
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="34">
         <v>0.3</v>
       </c>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="40">
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="39">
         <v>0.1</v>
       </c>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="41"/>
-      <c r="AK26" s="41"/>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="41"/>
-      <c r="AN26" s="41"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="41"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="41"/>
-      <c r="AK29" s="41"/>
-      <c r="AL29" s="41"/>
-      <c r="AM29" s="41"/>
-      <c r="AN29" s="41"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
     </row>
     <row r="30" spans="2:40">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="22"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
-      <c r="AL30" s="22"/>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="22"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="21"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
     </row>
     <row r="31" spans="2:40">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="22"/>
-      <c r="AL31" s="22"/>
-      <c r="AM31" s="22"/>
-      <c r="AN31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
     </row>
     <row r="32" spans="2:40">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
+      <c r="AJ32" s="21"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="21"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
     </row>
     <row r="33" spans="2:40">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="22"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="22"/>
-      <c r="AL33" s="22"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+      <c r="AI33" s="21"/>
+      <c r="AJ33" s="21"/>
+      <c r="AK33" s="21"/>
+      <c r="AL33" s="21"/>
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="21"/>
     </row>
     <row r="34" spans="2:40">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="22"/>
-      <c r="AL34" s="22"/>
-      <c r="AM34" s="22"/>
-      <c r="AN34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="21"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4418,8 +4364,8 @@
   <sheetPr/>
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -4608,8 +4554,8 @@
   <sheetPr/>
   <dimension ref="A24:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A25:I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
